--- a/amc_resources/strength_units_updates_b.xlsx
+++ b/amc_resources/strength_units_updates_b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,6 +465,54 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>gram</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>millions of international units</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>iu</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>international units</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ud</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>unit dose</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/amc_resources/strength_units_updates_b.xlsx
+++ b/amc_resources/strength_units_updates_b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,18 +501,6 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ud</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>unit dose</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/amc_resources/strength_units_updates_b.xlsx
+++ b/amc_resources/strength_units_updates_b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,6 +501,18 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ud</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>unit dose</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
